--- a/biology/Zoologie/Graptemys_barbouri/Graptemys_barbouri.xlsx
+++ b/biology/Zoologie/Graptemys_barbouri/Graptemys_barbouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graptemys barbouri est une espèce de tortues de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graptemys barbouri est une espèce de tortues de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Alabama, en Floride et en Géorgie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Alabama, en Floride et en Géorgie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette tortue mesure entre 8 et 14 cm pour les mâles, les femelles étant un peu plus petites. Elle présente des trois petites épines noires sur le dessus de la carapace, et la tête est striée de blanc.
 Elle se nourrit de petits mollusques, insectes et poissons qu'elle capture dans les rivières où elle vit.
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste américain Thomas Barbour (1884-1946)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste américain Thomas Barbour (1884-1946).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Carr &amp; Marchand, 1942 : A new turtle from the Chipola River, Florida. Proceedings of the New England Zoological Club, vol. 20, p. 95-100.</t>
         </is>
